--- a/ACUD StageEvent.xlsx
+++ b/ACUD StageEvent.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共用\8051\Duncan-ACUD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="17235" windowHeight="7380"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="17240" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -259,41 +264,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -304,6 +309,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -352,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,7 +395,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,376 +606,334 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="8" width="15.625" customWidth="1"/>
+    <col min="5" max="8" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="6" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C3" s="1"/>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9" t="s">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="16"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="16">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="9" t="s">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="16"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="7" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="16"/>
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="7" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="16"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="16"/>
+      <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="7" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="16"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="7" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="16"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="16"/>
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="7" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="16"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="16"/>
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="7" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="16"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="16"/>
+      <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="7" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="16"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="16"/>
+      <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="9" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="16"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="7" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="16"/>
+      <c r="C23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="9" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="16"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="7" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="16"/>
+      <c r="C25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="9" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="16"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="14" t="s">
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="16"/>
+      <c r="C27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="9" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="16"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B5:B6"/>
@@ -984,15 +950,57 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G3:H4"/>
     <mergeCell ref="C9:D10"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1006,7 +1014,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1019,7 +1027,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
